--- a/report3_git/data.xlsx
+++ b/report3_git/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\report3_git\report3_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E496C22-7AD3-4A79-B6E0-C46311C4B70A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024F498-6C41-4F87-ACBE-F33F581B1574}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1209,192 +1209,198 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$E$1:$E$29</c:f>
+              <c:f>data!$E$1:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1840</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>230</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1260</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>490</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1040</c:v>
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$F$1:$F$29</c:f>
+              <c:f>data!$F$1:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2260</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1340</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1660</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>1420</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1770</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1240</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>590</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1310</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2090</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>860</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1500</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>500</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>950</c:v>
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,10 +3084,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3098,23 +3104,23 @@
         <v>1760</v>
       </c>
       <c r="D1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1">
         <f>VLOOKUP(D1,$A$1:$C$29,2,FALSE)</f>
-        <v>510</v>
+        <v>1490</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(D1,$A$1:$C$29,3,FALSE)</f>
-        <v>700</v>
+        <v>1630</v>
       </c>
       <c r="G1">
         <f>((E1-E2)^2+(F1-F2)^2)^(1/2)</f>
-        <v>1584.9290204927158</v>
+        <v>364.0054944640259</v>
       </c>
       <c r="I1">
         <f>G1^2</f>
-        <v>2511999.9999999995</v>
+        <v>132500</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.65">
@@ -3128,27 +3134,27 @@
         <v>1660</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E30" si="0">VLOOKUP(D2,$A$1:$C$29,2,FALSE)</f>
-        <v>790</v>
+        <v>1150</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F30" si="1">VLOOKUP(D2,$A$1:$C$29,3,FALSE)</f>
-        <v>2260</v>
+        <v>1760</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G29" si="2">((E2-E3)^2+(F2-F3)^2)^(1/2)</f>
-        <v>1167.7756633874505</v>
+        <v>186.01075237738274</v>
       </c>
       <c r="H2">
         <f>SUM($G$1:G2)</f>
-        <v>2752.7046838801662</v>
+        <v>550.0162468414087</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I29" si="3">G2^2</f>
-        <v>1363700.0000000002</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.65">
@@ -3162,27 +3168,27 @@
         <v>2090</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1260</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1910</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>710.28163428319056</v>
+        <v>280.17851452243798</v>
       </c>
       <c r="H3">
         <f>SUM($G$1:G3)</f>
-        <v>3462.9863181633568</v>
+        <v>830.19476136384674</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>504500.00000000006</v>
+        <v>78499.999999999985</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.65">
@@ -3196,27 +3202,27 @@
         <v>1100</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>1030</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1910</v>
+        <v>2070</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>523.92747589718942</v>
+        <v>269.2582403567252</v>
       </c>
       <c r="H4">
         <f>SUM($G$1:G4)</f>
-        <v>3986.913794060546</v>
+        <v>1099.453001720572</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>274500</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.65">
@@ -3230,27 +3236,27 @@
         <v>2030</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1170</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2030</v>
+        <v>2300</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>841.18963379252364</v>
+        <v>382.09946349085601</v>
       </c>
       <c r="H5">
         <f>SUM($G$1:G5)</f>
-        <v>4828.1034278530697</v>
+        <v>1481.5524652114282</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>707600</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.65">
@@ -3264,27 +3270,27 @@
         <v>2070</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>790</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>2260</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>595.39902586416781</v>
+        <v>326.9556544854363</v>
       </c>
       <c r="H6">
         <f>SUM($G$1:G6)</f>
-        <v>5423.5024537172376</v>
+        <v>1808.5081196968645</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>354499.99999999994</v>
+        <v>106900</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.65">
@@ -3298,27 +3304,27 @@
         <v>650</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>970</v>
+        <v>490</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>2130</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>325.57641192199412</v>
+        <v>451.7742799230607</v>
       </c>
       <c r="H7">
         <f>SUM($G$1:G7)</f>
-        <v>5749.0788656392315</v>
+        <v>2260.2823996199249</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>106000</v>
+        <v>204100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.65">
@@ -3332,27 +3338,27 @@
         <v>1630</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>2090</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>614.00325732035003</v>
+        <v>338.37848631377261</v>
       </c>
       <c r="H8">
         <f>SUM($G$1:G8)</f>
-        <v>6363.0821229595813</v>
+        <v>2598.6608859336975</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>377000</v>
+        <v>114500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.65">
@@ -3366,27 +3372,27 @@
         <v>2260</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>360</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>1980</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1555.5384919699029</v>
+        <v>393.19206502675002</v>
       </c>
       <c r="H9">
         <f>SUM($G$1:G9)</f>
-        <v>7918.620614929484</v>
+        <v>2991.8529509604477</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>2419699.9999999995</v>
+        <v>154600</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.65">
@@ -3400,27 +3406,27 @@
         <v>1310</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>750</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2130</v>
+        <v>2030</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>700.92795635500227</v>
+        <v>272.02941017470886</v>
       </c>
       <c r="H10">
         <f>SUM($G$1:G10)</f>
-        <v>8619.5485712844857</v>
+        <v>3263.8823611351568</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>491299.99999999994</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.65">
@@ -3434,27 +3440,27 @@
         <v>550</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>830</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>1770</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>1079.1200118615168</v>
+        <v>228.25424421026653</v>
       </c>
       <c r="H11">
         <f>SUM($G$1:G11)</f>
-        <v>9698.6685831460018</v>
+        <v>3492.1366053454235</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1164500.0000000002</v>
+        <v>52099.999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.65">
@@ -3468,27 +3474,27 @@
         <v>2300</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1660</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1292.749008895385</v>
+        <v>272.9468812791236</v>
       </c>
       <c r="H12">
         <f>SUM($G$1:G12)</f>
-        <v>10991.417592041387</v>
+        <v>3765.0834866245473</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1671200.0000000002</v>
+        <v>74500</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.65">
@@ -3502,27 +3508,27 @@
         <v>1340</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>590</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>1390</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>1217.4152947946727</v>
+        <v>545.71054598569015</v>
       </c>
       <c r="H13">
         <f>SUM($G$1:G13)</f>
-        <v>12208.83288683606</v>
+        <v>4310.7940326102371</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1482099.9999999998</v>
+        <v>297800.00000000006</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.65">
@@ -3536,27 +3542,27 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>460</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>860</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>529.52809179494909</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="H14">
         <f>SUM($G$1:G14)</f>
-        <v>12738.36097863101</v>
+        <v>4478.4245787526388</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>280400.00000000006</v>
+        <v>28100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.65">
@@ -3570,27 +3576,27 @@
         <v>900</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>700</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>864.00231481171397</v>
+        <v>300.83217912982644</v>
       </c>
       <c r="H15">
         <f>SUM($G$1:G15)</f>
-        <v>13602.363293442724</v>
+        <v>4779.2567578824655</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>746500.00000000012</v>
+        <v>90499.999999999985</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.65">
@@ -3604,27 +3610,27 @@
         <v>1200</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1460</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1420</v>
+        <v>590</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>720.69410986908997</v>
+        <v>275.13632984395207</v>
       </c>
       <c r="H16">
         <f>SUM($G$1:G16)</f>
-        <v>14323.057403311814</v>
+        <v>5054.3930877264174</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>519399.99999999994</v>
+        <v>75699.999999999985</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.65">
@@ -3638,27 +3644,27 @@
         <v>590</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>490</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>500</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>1220.040982918197</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="H17">
         <f>SUM($G$1:G17)</f>
-        <v>15543.098386230011</v>
+        <v>5407.9464783196909</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1488500.0000000002</v>
+        <v>125000.00000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.65">
@@ -3684,15 +3690,15 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1214.9485585818027</v>
+        <v>501.19856344566671</v>
       </c>
       <c r="H18">
         <f>SUM($G$1:G18)</f>
-        <v>16758.046944811813</v>
+        <v>5909.1450417653577</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1476100</v>
+        <v>251200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.65">
@@ -3706,27 +3712,27 @@
         <v>950</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1280</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1240</v>
+        <v>790</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1159.7413504743201</v>
+        <v>395.60080889704966</v>
       </c>
       <c r="H19">
         <f>SUM($G$1:G19)</f>
-        <v>17917.788295286133</v>
+        <v>6304.7458506624071</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1344999.9999999998</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.65">
@@ -3740,27 +3746,27 @@
         <v>1390</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>1650</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2070</v>
+        <v>650</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>1682.3792675850473</v>
+        <v>619.83868869246942</v>
       </c>
       <c r="H20">
         <f>SUM($G$1:G20)</f>
-        <v>19600.167562871182</v>
+        <v>6924.5845393548761</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>2830400</v>
+        <v>384200</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.65">
@@ -3774,27 +3780,27 @@
         <v>1770</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>1840</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>1240</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>865.33230611135741</v>
+        <v>635.60994328282811</v>
       </c>
       <c r="H21">
         <f>SUM($G$1:G21)</f>
-        <v>20465.499868982541</v>
+        <v>7560.1944826377039</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>748800</v>
+        <v>403999.99999999994</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.65">
@@ -3808,27 +3814,27 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1260</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1500</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>755.91004755857034</v>
+        <v>331.20990323358387</v>
       </c>
       <c r="H22">
         <f>SUM($G$1:G22)</f>
-        <v>21221.40991654111</v>
+        <v>7891.4043858712876</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>571400.00000000012</v>
+        <v>109700</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.65">
@@ -3842,27 +3848,27 @@
         <v>1240</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>970</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>1340</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>338.37848631377261</v>
+        <v>261.72504656604804</v>
       </c>
       <c r="H23">
         <f>SUM($G$1:G23)</f>
-        <v>21559.788402854883</v>
+        <v>8153.1294324373357</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>114500</v>
+        <v>68500.000000000015</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.65">
@@ -3876,27 +3882,27 @@
         <v>1500</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>710</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>2090</v>
+        <v>1310</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1299.7307413460683</v>
+        <v>213.77558326431949</v>
       </c>
       <c r="H24">
         <f>SUM($G$1:G24)</f>
-        <v>22859.519144200953</v>
+        <v>8366.9050157016554</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>1689300.0000000002</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.65">
@@ -3910,27 +3916,27 @@
         <v>790</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>750</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>1100</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>292.74562336608892</v>
+        <v>200</v>
       </c>
       <c r="H25">
         <f>SUM($G$1:G25)</f>
-        <v>23152.264767567041</v>
+        <v>8566.9050157016554</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>85699.999999999985</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.65">
@@ -3956,15 +3962,15 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>787.46428490440121</v>
+        <v>294.27877939124323</v>
       </c>
       <c r="H26">
         <f>SUM($G$1:G26)</f>
-        <v>23939.729052471441</v>
+        <v>8861.1837950928984</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>620100</v>
+        <v>86600</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.65">
@@ -3978,27 +3984,27 @@
         <v>1420</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>1040</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1262.1014222319852</v>
+        <v>346.55446902326912</v>
       </c>
       <c r="H27">
         <f>SUM($G$1:G27)</f>
-        <v>25201.830474703427</v>
+        <v>9207.7382641161676</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1592899.9999999998</v>
+        <v>120100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.65">
@@ -4012,27 +4018,27 @@
         <v>1910</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>1280</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>710.63352017759473</v>
+        <v>284.25340807103788</v>
       </c>
       <c r="H28">
         <f>SUM($G$1:G28)</f>
-        <v>25912.463994881022</v>
+        <v>9491.991672187205</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>504999.99999999994</v>
+        <v>80799.999999999985</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.65">
@@ -4046,49 +4052,53 @@
         <v>1980</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>1460</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>1420</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>817.43501270743229</v>
+        <v>212.13203435596427</v>
       </c>
       <c r="H29">
         <f>SUM($G$1:G29)</f>
-        <v>26729.899007588454</v>
+        <v>9704.1237065431687</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>668200</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="D30">
+        <f>D1</f>
+        <v>7</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1490</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.65">
       <c r="G31">
         <f>SUM(G1:G29)</f>
-        <v>26729.899007588454</v>
+        <v>9704.1237065431687</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/report3_git/data.xlsx
+++ b/report3_git/data.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\report3_git\report3_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\report3_git\report3_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024F498-6C41-4F87-ACBE-F33F581B1574}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,6 +683,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1088,6 +1088,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1095,7 +1096,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1145,6 +1145,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1214,94 +1215,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1490</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1150</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1030</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>830</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>630</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>840</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>1650</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>1840</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1040</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>1280</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1490</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,94 +1314,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2260</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1660</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1340</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1630</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,6 +1558,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1564,7 +1566,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3084,16 +3085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3104,26 +3105,26 @@
         <v>1760</v>
       </c>
       <c r="D1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <f>VLOOKUP(D1,$A$1:$C$29,2,FALSE)</f>
-        <v>1490</v>
+        <v>1280</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(D1,$A$1:$C$29,3,FALSE)</f>
-        <v>1630</v>
+        <v>1200</v>
       </c>
       <c r="G1">
         <f>((E1-E2)^2+(F1-F2)^2)^(1/2)</f>
-        <v>364.0054944640259</v>
+        <v>340.14702703389895</v>
       </c>
       <c r="I1">
         <f>G1^2</f>
-        <v>132500</v>
+        <v>115699.99999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3134,30 +3135,30 @@
         <v>1660</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E30" si="0">VLOOKUP(D2,$A$1:$C$29,2,FALSE)</f>
-        <v>1150</v>
+        <v>970</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F30" si="1">VLOOKUP(D2,$A$1:$C$29,3,FALSE)</f>
-        <v>1760</v>
+        <v>1340</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G29" si="2">((E2-E3)^2+(F2-F3)^2)^(1/2)</f>
-        <v>186.01075237738274</v>
+        <v>331.20990323358387</v>
       </c>
       <c r="H2">
         <f>SUM($G$1:G2)</f>
-        <v>550.0162468414087</v>
+        <v>671.35693026748277</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I29" si="3">G2^2</f>
-        <v>34600</v>
+        <v>109700</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>2090</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -3176,22 +3177,22 @@
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1910</v>
+        <v>1500</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>280.17851452243798</v>
+        <v>282.31188426986211</v>
       </c>
       <c r="H3">
         <f>SUM($G$1:G3)</f>
-        <v>830.19476136384674</v>
+        <v>953.66881453734482</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>78499.999999999985</v>
+        <v>79700.000000000015</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3202,30 +3203,30 @@
         <v>1100</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>1150</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2070</v>
+        <v>1760</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>269.2582403567252</v>
+        <v>186.01075237738274</v>
       </c>
       <c r="H4">
         <f>SUM($G$1:G4)</f>
-        <v>1099.453001720572</v>
+        <v>1139.6795669147275</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>72500</v>
+        <v>34600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3236,30 +3237,30 @@
         <v>2030</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>1910</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>382.09946349085601</v>
+        <v>280.17851452243798</v>
       </c>
       <c r="H5">
         <f>SUM($G$1:G5)</f>
-        <v>1481.5524652114282</v>
+        <v>1419.8580814371655</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>146000</v>
+        <v>78499.999999999985</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3270,30 +3271,30 @@
         <v>2070</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>790</v>
+        <v>1030</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2260</v>
+        <v>2070</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>326.9556544854363</v>
+        <v>269.2582403567252</v>
       </c>
       <c r="H6">
         <f>SUM($G$1:G6)</f>
-        <v>1808.5081196968645</v>
+        <v>1689.1163217938906</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>106900</v>
+        <v>72500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3304,30 +3305,30 @@
         <v>650</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>1170</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2130</v>
+        <v>2300</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>451.7742799230607</v>
+        <v>382.09946349085601</v>
       </c>
       <c r="H7">
         <f>SUM($G$1:G7)</f>
-        <v>2260.2823996199249</v>
+        <v>2071.2157852847467</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>204100</v>
+        <v>146000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3338,30 +3339,30 @@
         <v>1630</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>790</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2090</v>
+        <v>2260</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>338.37848631377261</v>
+        <v>326.9556544854363</v>
       </c>
       <c r="H8">
         <f>SUM($G$1:G8)</f>
-        <v>2598.6608859336975</v>
+        <v>2398.171439770183</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>114500</v>
+        <v>106900</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3372,30 +3373,30 @@
         <v>2260</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>2130</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>393.19206502675002</v>
+        <v>451.7742799230607</v>
       </c>
       <c r="H9">
         <f>SUM($G$1:G9)</f>
-        <v>2991.8529509604477</v>
+        <v>2849.9457196932435</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>154600</v>
+        <v>204100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3406,30 +3407,30 @@
         <v>1310</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2030</v>
+        <v>2090</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>272.02941017470886</v>
+        <v>338.37848631377261</v>
       </c>
       <c r="H10">
         <f>SUM($G$1:G10)</f>
-        <v>3263.8823611351568</v>
+        <v>3188.3242060070161</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>74000</v>
+        <v>114500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3440,30 +3441,30 @@
         <v>550</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>360</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>1980</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>228.25424421026653</v>
+        <v>393.19206502675002</v>
       </c>
       <c r="H11">
         <f>SUM($G$1:G11)</f>
-        <v>3492.1366053454235</v>
+        <v>3581.5162710337663</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>52099.999999999993</v>
+        <v>154600</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3474,30 +3475,30 @@
         <v>2300</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>750</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>2030</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>272.9468812791236</v>
+        <v>272.02941017470886</v>
       </c>
       <c r="H12">
         <f>SUM($G$1:G12)</f>
-        <v>3765.0834866245473</v>
+        <v>3853.5456812084753</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>74500</v>
+        <v>74000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3508,30 +3509,30 @@
         <v>1340</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>830</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1770</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>545.71054598569015</v>
+        <v>228.25424421026653</v>
       </c>
       <c r="H13">
         <f>SUM($G$1:G13)</f>
-        <v>4310.7940326102371</v>
+        <v>4081.7999254187421</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>297800.00000000006</v>
+        <v>52099.999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3542,30 +3543,30 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>630</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>1660</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>167.6305461424021</v>
+        <v>272.9468812791236</v>
       </c>
       <c r="H14">
         <f>SUM($G$1:G14)</f>
-        <v>4478.4245787526388</v>
+        <v>4354.7468066978654</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>28100</v>
+        <v>74500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3576,30 +3577,30 @@
         <v>900</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>1390</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>300.83217912982644</v>
+        <v>144.22205101855957</v>
       </c>
       <c r="H15">
         <f>SUM($G$1:G15)</f>
-        <v>4779.2567578824655</v>
+        <v>4498.9688577164252</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>90499.999999999985</v>
+        <v>20800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3610,30 +3611,30 @@
         <v>1200</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>710</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>1310</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>275.13632984395207</v>
+        <v>514.78150704935001</v>
       </c>
       <c r="H16">
         <f>SUM($G$1:G16)</f>
-        <v>5054.3930877264174</v>
+        <v>5013.750364765775</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>75699.999999999985</v>
+        <v>265000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3644,30 +3645,30 @@
         <v>590</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>353.55339059327378</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="H17">
         <f>SUM($G$1:G17)</f>
-        <v>5407.9464783196909</v>
+        <v>5181.3809109081767</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>125000.00000000001</v>
+        <v>28100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3678,30 +3679,30 @@
         <v>860</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>510</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>501.19856344566671</v>
+        <v>300.83217912982644</v>
       </c>
       <c r="H18">
         <f>SUM($G$1:G18)</f>
-        <v>5909.1450417653577</v>
+        <v>5482.2130900380034</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>251200</v>
+        <v>90499.999999999985</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3712,30 +3713,30 @@
         <v>950</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>230</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>590</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>395.60080889704966</v>
+        <v>275.13632984395207</v>
       </c>
       <c r="H19">
         <f>SUM($G$1:G19)</f>
-        <v>6304.7458506624071</v>
+        <v>5757.3494198819553</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>156500</v>
+        <v>75699.999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3746,30 +3747,30 @@
         <v>1390</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>490</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>619.83868869246942</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="H20">
         <f>SUM($G$1:G20)</f>
-        <v>6924.5845393548761</v>
+        <v>6110.9028104752288</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>384200</v>
+        <v>125000.00000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3780,30 +3781,30 @@
         <v>1770</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>840</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1240</v>
+        <v>550</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>635.60994328282811</v>
+        <v>361.38621999185301</v>
       </c>
       <c r="H21">
         <f>SUM($G$1:G21)</f>
-        <v>7560.1944826377039</v>
+        <v>6472.2890304670818</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>403999.99999999994</v>
+        <v>130599.99999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3814,30 +3815,30 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>750</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>331.20990323358387</v>
+        <v>200</v>
       </c>
       <c r="H22">
         <f>SUM($G$1:G22)</f>
-        <v>7891.4043858712876</v>
+        <v>6672.2890304670818</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>109700</v>
+        <v>40000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3848,30 +3849,30 @@
         <v>1240</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>970</v>
+        <v>750</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>1100</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>261.72504656604804</v>
+        <v>326.49655434629017</v>
       </c>
       <c r="H23">
         <f>SUM($G$1:G23)</f>
-        <v>8153.1294324373357</v>
+        <v>6998.7855848133722</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>68500.000000000015</v>
+        <v>106600.00000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3882,30 +3883,30 @@
         <v>1500</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>1040</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>950</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>213.77558326431949</v>
+        <v>288.44410203711914</v>
       </c>
       <c r="H24">
         <f>SUM($G$1:G24)</f>
-        <v>8366.9050157016554</v>
+        <v>7287.2296868504909</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>45700</v>
+        <v>83200</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3916,30 +3917,30 @@
         <v>790</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1280</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>790</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>395.60080889704966</v>
       </c>
       <c r="H25">
         <f>SUM($G$1:G25)</f>
-        <v>8566.9050157016554</v>
+        <v>7682.8304957475402</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>156500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3950,30 +3951,30 @@
         <v>2130</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1650</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>294.27877939124323</v>
+        <v>619.83868869246942</v>
       </c>
       <c r="H26">
         <f>SUM($G$1:G26)</f>
-        <v>8861.1837950928984</v>
+        <v>8302.6691844400102</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>86600</v>
+        <v>384200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3984,30 +3985,30 @@
         <v>1420</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>1840</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>1240</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>346.55446902326912</v>
+        <v>524.02290026295611</v>
       </c>
       <c r="H27">
         <f>SUM($G$1:G27)</f>
-        <v>9207.7382641161676</v>
+        <v>8826.6920847029669</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>120100</v>
+        <v>274600.00000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4018,30 +4019,30 @@
         <v>1910</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1490</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1630</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>284.25340807103788</v>
+        <v>212.13203435596427</v>
       </c>
       <c r="H28">
         <f>SUM($G$1:G28)</f>
-        <v>9491.991672187205</v>
+        <v>9038.8241190589306</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>80799.999999999985</v>
+        <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4064,35 +4065,35 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>212.13203435596427</v>
+        <v>284.25340807103788</v>
       </c>
       <c r="H29">
         <f>SUM($G$1:G29)</f>
-        <v>9704.1237065431687</v>
+        <v>9323.0775271299681</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>80799.999999999985</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D30">
         <f>D1</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>1280</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G31">
         <f>SUM(G1:G29)</f>
-        <v>9704.1237065431687</v>
+        <v>9323.0775271299681</v>
       </c>
     </row>
   </sheetData>

--- a/report3_git/data.xlsx
+++ b/report3_git/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\report3_git\report3_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denki\Documents\GitHub\report3_git\report3_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23448" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1215,94 +1215,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1260</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1030</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>830</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>630</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>840</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>1040</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>1650</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,94 +1314,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1340</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1760</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1910</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>2070</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1770</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>1660</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1390</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1310</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>860</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3088,13 +3088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3105,26 +3105,26 @@
         <v>1760</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E1">
         <f>VLOOKUP(D1,$A$1:$C$29,2,FALSE)</f>
-        <v>1280</v>
+        <v>1840</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(D1,$A$1:$C$29,3,FALSE)</f>
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="G1">
         <f>((E1-E2)^2+(F1-F2)^2)^(1/2)</f>
-        <v>340.14702703389895</v>
+        <v>420.47592083257274</v>
       </c>
       <c r="I1">
         <f>G1^2</f>
-        <v>115699.99999999999</v>
+        <v>176799.99999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3135,30 +3135,30 @@
         <v>1660</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E30" si="0">VLOOKUP(D2,$A$1:$C$29,2,FALSE)</f>
-        <v>970</v>
+        <v>1460</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F30" si="1">VLOOKUP(D2,$A$1:$C$29,3,FALSE)</f>
-        <v>1340</v>
+        <v>1420</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G29" si="2">((E2-E3)^2+(F2-F3)^2)^(1/2)</f>
-        <v>331.20990323358387</v>
+        <v>212.13203435596427</v>
       </c>
       <c r="H2">
         <f>SUM($G$1:G2)</f>
-        <v>671.35693026748277</v>
+        <v>632.60795518853706</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I29" si="3">G2^2</f>
-        <v>109700</v>
+        <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3169,30 +3169,30 @@
         <v>2090</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>1490</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>282.31188426986211</v>
+        <v>264.1968962724581</v>
       </c>
       <c r="H3">
         <f>SUM($G$1:G3)</f>
-        <v>953.66881453734482</v>
+        <v>896.80485146099522</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>79700.000000000015</v>
+        <v>69799.999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3203,30 +3203,30 @@
         <v>1100</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1260</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>186.01075237738274</v>
+        <v>300.66592756745814</v>
       </c>
       <c r="H4">
         <f>SUM($G$1:G4)</f>
-        <v>1139.6795669147275</v>
+        <v>1197.4707790284533</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>34600</v>
+        <v>90399.999999999985</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3237,30 +3237,30 @@
         <v>2030</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1910</v>
+        <v>1200</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>280.17851452243798</v>
+        <v>340.14702703389895</v>
       </c>
       <c r="H5">
         <f>SUM($G$1:G5)</f>
-        <v>1419.8580814371655</v>
+        <v>1537.6178060623522</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>78499.999999999985</v>
+        <v>115699.99999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3271,30 +3271,30 @@
         <v>2070</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>970</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2070</v>
+        <v>1340</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>269.2582403567252</v>
+        <v>456.94638635183452</v>
       </c>
       <c r="H6">
         <f>SUM($G$1:G6)</f>
-        <v>1689.1163217938906</v>
+        <v>1994.5641924141867</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>72500</v>
+        <v>208800.00000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3305,30 +3305,30 @@
         <v>650</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>1760</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>382.09946349085601</v>
+        <v>186.01075237738274</v>
       </c>
       <c r="H7">
         <f>SUM($G$1:G7)</f>
-        <v>2071.2157852847467</v>
+        <v>2180.5749447915696</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>146000</v>
+        <v>34600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3339,30 +3339,30 @@
         <v>1630</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>790</v>
+        <v>1260</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2260</v>
+        <v>1910</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>326.9556544854363</v>
+        <v>280.17851452243798</v>
       </c>
       <c r="H8">
         <f>SUM($G$1:G8)</f>
-        <v>2398.171439770183</v>
+        <v>2460.7534593140076</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>106900</v>
+        <v>78499.999999999985</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3373,30 +3373,30 @@
         <v>2260</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>1030</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>2130</v>
+        <v>2070</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>451.7742799230607</v>
+        <v>269.2582403567252</v>
       </c>
       <c r="H9">
         <f>SUM($G$1:G9)</f>
-        <v>2849.9457196932435</v>
+        <v>2730.0116996707329</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>204100</v>
+        <v>72500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3407,30 +3407,30 @@
         <v>1310</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>1170</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2090</v>
+        <v>2300</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>338.37848631377261</v>
+        <v>382.09946349085601</v>
       </c>
       <c r="H10">
         <f>SUM($G$1:G10)</f>
-        <v>3188.3242060070161</v>
+        <v>3112.111163161589</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>114500</v>
+        <v>146000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3441,30 +3441,30 @@
         <v>550</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>790</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>2260</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>393.19206502675002</v>
+        <v>233.45235059857504</v>
       </c>
       <c r="H11">
         <f>SUM($G$1:G11)</f>
-        <v>3581.5162710337663</v>
+        <v>3345.5635137601639</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>154600</v>
+        <v>54500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3487,18 +3487,18 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>272.02941017470886</v>
+        <v>278.56776554368241</v>
       </c>
       <c r="H12">
         <f>SUM($G$1:G12)</f>
-        <v>3853.5456812084753</v>
+        <v>3624.1312793038464</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>74000</v>
+        <v>77600.000000000015</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3509,30 +3509,30 @@
         <v>1340</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>490</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>2130</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>228.25424421026653</v>
+        <v>451.7742799230607</v>
       </c>
       <c r="H13">
         <f>SUM($G$1:G13)</f>
-        <v>4081.7999254187421</v>
+        <v>4075.9055592269069</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>52099.999999999993</v>
+        <v>204100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3543,30 +3543,30 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>2090</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>272.9468812791236</v>
+        <v>338.37848631377261</v>
       </c>
       <c r="H14">
         <f>SUM($G$1:G14)</f>
-        <v>4354.7468066978654</v>
+        <v>4414.2840455406795</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>74500</v>
+        <v>114500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3577,30 +3577,30 @@
         <v>900</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>360</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>1980</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>144.22205101855957</v>
+        <v>514.78150704935001</v>
       </c>
       <c r="H15">
         <f>SUM($G$1:G15)</f>
-        <v>4498.9688577164252</v>
+        <v>4929.0655525900293</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>20800</v>
+        <v>265000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3611,30 +3611,30 @@
         <v>1200</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>830</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1310</v>
+        <v>1770</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>514.78150704935001</v>
+        <v>228.25424421026653</v>
       </c>
       <c r="H16">
         <f>SUM($G$1:G16)</f>
-        <v>5013.750364765775</v>
+        <v>5157.319796800296</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>265000</v>
+        <v>52099.999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3645,30 +3645,30 @@
         <v>590</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>630</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>1660</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>167.6305461424021</v>
+        <v>272.9468812791236</v>
       </c>
       <c r="H17">
         <f>SUM($G$1:G17)</f>
-        <v>5181.3809109081767</v>
+        <v>5430.2666780794198</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>28100</v>
+        <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3679,30 +3679,30 @@
         <v>860</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>1390</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>300.83217912982644</v>
+        <v>144.22205101855957</v>
       </c>
       <c r="H18">
         <f>SUM($G$1:G18)</f>
-        <v>5482.2130900380034</v>
+        <v>5574.4887290979796</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>90499.999999999985</v>
+        <v>20800</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3713,30 +3713,30 @@
         <v>950</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>710</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>1310</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>275.13632984395207</v>
+        <v>213.77558326431949</v>
       </c>
       <c r="H19">
         <f>SUM($G$1:G19)</f>
-        <v>5757.3494198819553</v>
+        <v>5788.2643123622993</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>75699.999999999985</v>
+        <v>45700</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3747,30 +3747,30 @@
         <v>1390</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>750</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>353.55339059327378</v>
+        <v>376.43060449437422</v>
       </c>
       <c r="H20">
         <f>SUM($G$1:G20)</f>
-        <v>6110.9028104752288</v>
+        <v>6164.6949168566734</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>125000.00000000001</v>
+        <v>141700</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3781,30 +3781,30 @@
         <v>1770</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>460</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>361.38621999185301</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="H21">
         <f>SUM($G$1:G21)</f>
-        <v>6472.2890304670818</v>
+        <v>6332.3254629990752</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>130599.99999999999</v>
+        <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3815,30 +3815,30 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>300.83217912982644</v>
       </c>
       <c r="H22">
         <f>SUM($G$1:G22)</f>
-        <v>6672.2890304670818</v>
+        <v>6633.1576421289019</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>90499.999999999985</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3849,30 +3849,30 @@
         <v>1240</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>230</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>590</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>326.49655434629017</v>
+        <v>275.13632984395207</v>
       </c>
       <c r="H23">
         <f>SUM($G$1:G23)</f>
-        <v>6998.7855848133722</v>
+        <v>6908.2939719728538</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>106600.00000000001</v>
+        <v>75699.999999999985</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3883,30 +3883,30 @@
         <v>1500</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>490</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>288.44410203711914</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="H24">
         <f>SUM($G$1:G24)</f>
-        <v>7287.2296868504909</v>
+        <v>7261.8473625661272</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>83200</v>
+        <v>125000.00000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3917,30 +3917,30 @@
         <v>790</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>840</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>395.60080889704966</v>
+        <v>361.38621999185301</v>
       </c>
       <c r="H25">
         <f>SUM($G$1:G25)</f>
-        <v>7682.8304957475402</v>
+        <v>7623.2335825579803</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>156500</v>
+        <v>130599.99999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3951,30 +3951,30 @@
         <v>2130</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>750</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>619.83868869246942</v>
+        <v>294.27877939124323</v>
       </c>
       <c r="H26">
         <f>SUM($G$1:G26)</f>
-        <v>8302.6691844400102</v>
+        <v>7917.5123619492233</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>384200</v>
+        <v>86600</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3985,30 +3985,30 @@
         <v>1420</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1040</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1240</v>
+        <v>950</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>524.02290026295611</v>
+        <v>288.44410203711914</v>
       </c>
       <c r="H27">
         <f>SUM($G$1:G27)</f>
-        <v>8826.6920847029669</v>
+        <v>8205.956463986342</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>274600.00000000006</v>
+        <v>83200</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4019,30 +4019,30 @@
         <v>1910</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>1280</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>790</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>212.13203435596427</v>
+        <v>395.60080889704966</v>
       </c>
       <c r="H28">
         <f>SUM($G$1:G28)</f>
-        <v>9038.8241190589306</v>
+        <v>8601.5572728833922</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>156500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4053,47 +4053,47 @@
         <v>1980</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1460</v>
+        <v>1650</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>1420</v>
+        <v>650</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>284.25340807103788</v>
+        <v>619.83868869246942</v>
       </c>
       <c r="H29">
         <f>SUM($G$1:G29)</f>
-        <v>9323.0775271299681</v>
+        <v>9221.3959615758613</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>80799.999999999985</v>
+        <v>384200</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D30">
         <f>D1</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1840</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1240</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G31">
         <f>SUM(G1:G29)</f>
-        <v>9323.0775271299681</v>
+        <v>9221.3959615758613</v>
       </c>
     </row>
   </sheetData>

--- a/report3_git/data.xlsx
+++ b/report3_git/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denki\Documents\GitHub\report3_git\report3_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\report3_git\report3_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23448" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -682,38 +682,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -958,6 +927,7 @@
         <c:axId val="575625880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1144,38 +1114,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1218,19 +1157,19 @@
                   <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1460</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1490</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1150</c:v>
@@ -1248,16 +1187,16 @@
                   <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>830</c:v>
@@ -1275,22 +1214,22 @@
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1040</c:v>
@@ -1317,19 +1256,19 @@
                   <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1420</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1630</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1760</c:v>
@@ -1347,16 +1286,16 @@
                   <c:v>2260</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1770</c:v>
@@ -1374,22 +1313,22 @@
                   <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>860</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>950</c:v>
@@ -1428,6 +1367,7 @@
         <c:axId val="574405536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2758,10 +2698,10 @@
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403457</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3088,13 +3028,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3117,14 +3057,14 @@
       </c>
       <c r="G1">
         <f>((E1-E2)^2+(F1-F2)^2)^(1/2)</f>
-        <v>420.47592083257274</v>
+        <v>524.02290026295611</v>
       </c>
       <c r="I1">
         <f>G1^2</f>
-        <v>176799.99999999997</v>
+        <v>274600.00000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3135,15 +3075,15 @@
         <v>1660</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E30" si="0">VLOOKUP(D2,$A$1:$C$29,2,FALSE)</f>
-        <v>1460</v>
+        <v>1490</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F30" si="1">VLOOKUP(D2,$A$1:$C$29,3,FALSE)</f>
-        <v>1420</v>
+        <v>1630</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G29" si="2">((E2-E3)^2+(F2-F3)^2)^(1/2)</f>
@@ -3151,14 +3091,14 @@
       </c>
       <c r="H2">
         <f>SUM($G$1:G2)</f>
-        <v>632.60795518853706</v>
+        <v>736.15493461892038</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I29" si="3">G2^2</f>
         <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3169,30 +3109,30 @@
         <v>2090</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>1460</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>1420</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>264.1968962724581</v>
+        <v>284.25340807103788</v>
       </c>
       <c r="H3">
         <f>SUM($G$1:G3)</f>
-        <v>896.80485146099522</v>
+        <v>1020.4083426899583</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>69799.999999999985</v>
+        <v>80799.999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3203,30 +3143,30 @@
         <v>1100</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1260</v>
+        <f t="shared" ref="E4:E30" si="4">VLOOKUP(D4,$A$1:$C$29,2,FALSE)</f>
+        <v>1280</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <f t="shared" ref="F4:F30" si="5">VLOOKUP(D4,$A$1:$C$29,3,FALSE)</f>
+        <v>1200</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>300.66592756745814</v>
+        <v>340.14702703389895</v>
       </c>
       <c r="H4">
         <f>SUM($G$1:G4)</f>
-        <v>1197.4707790284533</v>
+        <v>1360.5553697238572</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>90399.999999999985</v>
+        <v>115699.99999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3237,30 +3177,30 @@
         <v>2030</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1280</v>
+        <f t="shared" si="4"/>
+        <v>970</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f t="shared" si="5"/>
+        <v>1340</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>340.14702703389895</v>
+        <v>331.20990323358387</v>
       </c>
       <c r="H5">
         <f>SUM($G$1:G5)</f>
-        <v>1537.6178060623522</v>
+        <v>1691.7652729574411</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>115699.99999999999</v>
+        <v>109700</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3271,30 +3211,30 @@
         <v>2070</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>970</v>
+        <f t="shared" si="4"/>
+        <v>1260</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1340</v>
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>456.94638635183452</v>
+        <v>282.31188426986211</v>
       </c>
       <c r="H6">
         <f>SUM($G$1:G6)</f>
-        <v>1994.5641924141867</v>
+        <v>1974.0771572273031</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>208800.00000000003</v>
+        <v>79700.000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3308,11 +3248,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1150</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1760</v>
       </c>
       <c r="G7">
@@ -3321,14 +3261,14 @@
       </c>
       <c r="H7">
         <f>SUM($G$1:G7)</f>
-        <v>2180.5749447915696</v>
+        <v>2160.087909604686</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
         <v>34600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3342,11 +3282,11 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1910</v>
       </c>
       <c r="G8">
@@ -3355,14 +3295,14 @@
       </c>
       <c r="H8">
         <f>SUM($G$1:G8)</f>
-        <v>2460.7534593140076</v>
+        <v>2440.2664241271241</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
         <v>78499.999999999985</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3376,11 +3316,11 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1030</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="G9">
@@ -3389,14 +3329,14 @@
       </c>
       <c r="H9">
         <f>SUM($G$1:G9)</f>
-        <v>2730.0116996707329</v>
+        <v>2709.5246644838494</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
         <v>72500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3410,11 +3350,11 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1170</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2300</v>
       </c>
       <c r="G10">
@@ -3423,14 +3363,14 @@
       </c>
       <c r="H10">
         <f>SUM($G$1:G10)</f>
-        <v>3112.111163161589</v>
+        <v>3091.6241279747055</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
         <v>146000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3444,27 +3384,27 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>790</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2260</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>233.45235059857504</v>
+        <v>326.9556544854363</v>
       </c>
       <c r="H11">
         <f>SUM($G$1:G11)</f>
-        <v>3345.5635137601639</v>
+        <v>3418.5797824601418</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>54500</v>
+        <v>106900</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3475,30 +3415,30 @@
         <v>2300</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>750</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>2030</v>
+        <f t="shared" si="5"/>
+        <v>2130</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>278.56776554368241</v>
+        <v>451.7742799230607</v>
       </c>
       <c r="H12">
         <f>SUM($G$1:G12)</f>
-        <v>3624.1312793038464</v>
+        <v>3870.3540623832023</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>77600.000000000015</v>
+        <v>204100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3509,30 +3449,30 @@
         <v>1340</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>2130</v>
+        <f t="shared" si="5"/>
+        <v>2090</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>451.7742799230607</v>
+        <v>338.37848631377261</v>
       </c>
       <c r="H13">
         <f>SUM($G$1:G13)</f>
-        <v>4075.9055592269069</v>
+        <v>4208.7325486969748</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>204100</v>
+        <v>114500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3543,30 +3483,30 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>360</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>2090</v>
+        <f t="shared" si="5"/>
+        <v>1980</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>338.37848631377261</v>
+        <v>393.19206502675002</v>
       </c>
       <c r="H14">
         <f>SUM($G$1:G14)</f>
-        <v>4414.2840455406795</v>
+        <v>4601.9246137237251</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>114500</v>
+        <v>154600</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3577,30 +3517,30 @@
         <v>900</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f t="shared" si="4"/>
+        <v>750</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1980</v>
+        <f t="shared" si="5"/>
+        <v>2030</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>514.78150704935001</v>
+        <v>272.02941017470886</v>
       </c>
       <c r="H15">
         <f>SUM($G$1:G15)</f>
-        <v>4929.0655525900293</v>
+        <v>4873.9540238984337</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>265000</v>
+        <v>74000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3614,11 +3554,11 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>830</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1770</v>
       </c>
       <c r="G16">
@@ -3627,14 +3567,14 @@
       </c>
       <c r="H16">
         <f>SUM($G$1:G16)</f>
-        <v>5157.319796800296</v>
+        <v>5102.2082681087004</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
         <v>52099.999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3648,11 +3588,11 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>630</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1660</v>
       </c>
       <c r="G17">
@@ -3661,14 +3601,14 @@
       </c>
       <c r="H17">
         <f>SUM($G$1:G17)</f>
-        <v>5430.2666780794198</v>
+        <v>5375.1551493878242</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3682,11 +3622,11 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>590</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1390</v>
       </c>
       <c r="G18">
@@ -3695,14 +3635,14 @@
       </c>
       <c r="H18">
         <f>SUM($G$1:G18)</f>
-        <v>5574.4887290979796</v>
+        <v>5519.377200406384</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
         <v>20800</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3716,11 +3656,11 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>710</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1310</v>
       </c>
       <c r="G19">
@@ -3729,14 +3669,14 @@
       </c>
       <c r="H19">
         <f>SUM($G$1:G19)</f>
-        <v>5788.2643123622993</v>
+        <v>5733.1527836707037</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
         <v>45700</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3750,27 +3690,27 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>376.43060449437422</v>
+        <v>200</v>
       </c>
       <c r="H20">
         <f>SUM($G$1:G20)</f>
-        <v>6164.6949168566734</v>
+        <v>5933.1527836707037</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>141700</v>
+        <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3781,30 +3721,30 @@
         <v>1770</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>460</v>
+        <f t="shared" si="4"/>
+        <v>750</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>860</v>
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>167.6305461424021</v>
+        <v>292.74562336608892</v>
       </c>
       <c r="H21">
         <f>SUM($G$1:G21)</f>
-        <v>6332.3254629990752</v>
+        <v>6225.8984070367924</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>28100</v>
+        <v>85699.999999999985</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3815,30 +3755,30 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>510</v>
+        <f t="shared" si="4"/>
+        <v>460</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <f t="shared" si="5"/>
+        <v>860</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>300.83217912982644</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="H22">
         <f>SUM($G$1:G22)</f>
-        <v>6633.1576421289019</v>
+        <v>6393.5289531791941</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>90499.999999999985</v>
+        <v>28100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3849,30 +3789,30 @@
         <v>1240</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <f t="shared" si="4"/>
+        <v>510</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>590</v>
+        <f t="shared" si="5"/>
+        <v>700</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>275.13632984395207</v>
+        <v>300.83217912982644</v>
       </c>
       <c r="H23">
         <f>SUM($G$1:G23)</f>
-        <v>6908.2939719728538</v>
+        <v>6694.3611323090208</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>75699.999999999985</v>
+        <v>90499.999999999985</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3883,30 +3823,30 @@
         <v>1500</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <f t="shared" si="4"/>
+        <v>230</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" si="5"/>
+        <v>590</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>353.55339059327378</v>
+        <v>275.13632984395207</v>
       </c>
       <c r="H24">
         <f>SUM($G$1:G24)</f>
-        <v>7261.8473625661272</v>
+        <v>6969.4974621529727</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>125000.00000000001</v>
+        <v>75699.999999999985</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3917,30 +3857,30 @@
         <v>790</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>840</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>550</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>361.38621999185301</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="H25">
         <f>SUM($G$1:G25)</f>
-        <v>7623.2335825579803</v>
+        <v>7323.0508527462462</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>130599.99999999999</v>
+        <v>125000.00000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3951,30 +3891,30 @@
         <v>2130</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>750</v>
+        <f t="shared" si="4"/>
+        <v>840</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <f t="shared" si="5"/>
+        <v>550</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>294.27877939124323</v>
+        <v>447.21359549995793</v>
       </c>
       <c r="H26">
         <f>SUM($G$1:G26)</f>
-        <v>7917.5123619492233</v>
+        <v>7770.2644482462038</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>86600</v>
+        <v>200000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3988,11 +3928,11 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1040</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>950</v>
       </c>
       <c r="G27">
@@ -4001,14 +3941,14 @@
       </c>
       <c r="H27">
         <f>SUM($G$1:G27)</f>
-        <v>8205.956463986342</v>
+        <v>8058.7085502833233</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
         <v>83200</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4022,11 +3962,11 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1280</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>790</v>
       </c>
       <c r="G28">
@@ -4035,14 +3975,14 @@
       </c>
       <c r="H28">
         <f>SUM($G$1:G28)</f>
-        <v>8601.5572728833922</v>
+        <v>8454.3093591803736</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
         <v>156500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4056,11 +3996,11 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1650</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="G29">
@@ -4069,31 +4009,31 @@
       </c>
       <c r="H29">
         <f>SUM($G$1:G29)</f>
-        <v>9221.3959615758613</v>
+        <v>9074.1480478728427</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
         <v>384200</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D30">
         <f>D1</f>
         <v>22</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1840</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1240</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G31">
         <f>SUM(G1:G29)</f>
-        <v>9221.3959615758613</v>
+        <v>9074.1480478728427</v>
       </c>
     </row>
   </sheetData>
